--- a/notes_and_extras/Tabelas necessárias - Gestão Escolar/Tabela de Países.xlsx
+++ b/notes_and_extras/Tabelas necessárias - Gestão Escolar/Tabela de Países.xlsx
@@ -970,8 +970,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A244" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
